--- a/final_data_pipeline/output/311611longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311611longform_elec_options_nowhp.xlsx
@@ -645,7 +645,7 @@
         <v>61</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -660,10 +660,10 @@
         <v>550682.5660311278</v>
       </c>
       <c r="N2">
-        <v>1.550576923076923</v>
+        <v>1.586442583591966</v>
       </c>
       <c r="O2">
-        <v>1.658958333333333</v>
+        <v>1.700608911205746</v>
       </c>
       <c r="P2">
         <v>68.83532075389098</v>
@@ -698,7 +698,7 @@
         <v>62</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -901,7 +901,7 @@
         <v>61</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="J7">
         <v>8000</v>
@@ -916,10 +916,10 @@
         <v>568113.8064823374</v>
       </c>
       <c r="N7">
-        <v>1.550576923076923</v>
+        <v>1.432007893438579</v>
       </c>
       <c r="O7">
-        <v>1.658958333333333</v>
+        <v>1.522400424853956</v>
       </c>
       <c r="P7">
         <v>71.01422581029217</v>
@@ -1054,7 +1054,7 @@
         <v>61</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -1069,10 +1069,10 @@
         <v>773523.9672825281</v>
       </c>
       <c r="N10">
-        <v>1.550576923076923</v>
+        <v>1.674945181765724</v>
       </c>
       <c r="O10">
-        <v>1.658958333333333</v>
+        <v>1.804078036500944</v>
       </c>
       <c r="P10">
         <v>96.690495910316</v>
@@ -1213,7 +1213,7 @@
         <v>61</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J13">
         <v>8000</v>
@@ -1228,10 +1228,10 @@
         <v>395888.8815671804</v>
       </c>
       <c r="N13">
-        <v>1.550576923076923</v>
+        <v>1.49828630419821</v>
       </c>
       <c r="O13">
-        <v>1.658958333333333</v>
+        <v>1.598520446096654</v>
       </c>
       <c r="P13">
         <v>49.48611019589755</v>
@@ -1319,7 +1319,7 @@
         <v>61</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J15">
         <v>8000</v>
@@ -1334,10 +1334,10 @@
         <v>733217.7372883369</v>
       </c>
       <c r="N15">
-        <v>1.550576923076923</v>
+        <v>1.49828630419821</v>
       </c>
       <c r="O15">
-        <v>1.658958333333333</v>
+        <v>1.598520446096654</v>
       </c>
       <c r="P15">
         <v>91.6522171610421</v>
@@ -1425,7 +1425,7 @@
         <v>61</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J17">
         <v>8000</v>
@@ -1440,10 +1440,10 @@
         <v>416520.5996813791</v>
       </c>
       <c r="N17">
-        <v>1.550576923076923</v>
+        <v>1.49828630419821</v>
       </c>
       <c r="O17">
-        <v>1.658958333333333</v>
+        <v>1.598520446096654</v>
       </c>
       <c r="P17">
         <v>52.06507496017239</v>
@@ -1578,7 +1578,7 @@
         <v>61</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J20">
         <v>8000</v>
@@ -1593,10 +1593,10 @@
         <v>668390.3736317258</v>
       </c>
       <c r="N20">
-        <v>1.550576923076923</v>
+        <v>1.458486584262888</v>
       </c>
       <c r="O20">
-        <v>1.658958333333333</v>
+        <v>1.552746181345467</v>
       </c>
       <c r="P20">
         <v>83.54879670396572</v>
@@ -1631,7 +1631,7 @@
         <v>62</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J21">
         <v>8000</v>
@@ -1728,7 +1728,7 @@
         <v>61</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="J23">
         <v>8000</v>
@@ -1743,10 +1743,10 @@
         <v>849837.99150891</v>
       </c>
       <c r="N23">
-        <v>1.550576923076923</v>
+        <v>1.583068924143447</v>
       </c>
       <c r="O23">
-        <v>1.658958333333333</v>
+        <v>1.696684247214952</v>
       </c>
       <c r="P23">
         <v>106.2297489386138</v>
@@ -1834,7 +1834,7 @@
         <v>61</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J25">
         <v>8000</v>
@@ -1849,10 +1849,10 @@
         <v>418041.7776689981</v>
       </c>
       <c r="N25">
-        <v>1.550576923076923</v>
+        <v>1.49828630419821</v>
       </c>
       <c r="O25">
-        <v>1.658958333333333</v>
+        <v>1.598520446096654</v>
       </c>
       <c r="P25">
         <v>52.25522220862477</v>
@@ -1887,7 +1887,7 @@
         <v>61</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J26">
         <v>8000</v>
@@ -1902,10 +1902,10 @@
         <v>455750.053225397</v>
       </c>
       <c r="N26">
-        <v>1.550576923076923</v>
+        <v>1.674333288469303</v>
       </c>
       <c r="O26">
-        <v>1.658958333333333</v>
+        <v>1.803359265239363</v>
       </c>
       <c r="P26">
         <v>56.96875665317463</v>
@@ -1940,7 +1940,7 @@
         <v>61</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J27">
         <v>8000</v>
@@ -1955,10 +1955,10 @@
         <v>576258.5018226566</v>
       </c>
       <c r="N27">
-        <v>1.550576923076923</v>
+        <v>1.612196950762309</v>
       </c>
       <c r="O27">
-        <v>1.658958333333333</v>
+        <v>1.730616680249932</v>
       </c>
       <c r="P27">
         <v>72.03231272783208</v>
@@ -1993,7 +1993,7 @@
         <v>62</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J28">
         <v>8000</v>
@@ -2040,7 +2040,7 @@
         <v>61</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="J29">
         <v>8000</v>
@@ -2055,10 +2055,10 @@
         <v>722390.8604903091</v>
       </c>
       <c r="N29">
-        <v>1.550576923076923</v>
+        <v>1.617332194197838</v>
       </c>
       <c r="O29">
-        <v>1.658958333333333</v>
+        <v>1.73660999151892</v>
       </c>
       <c r="P29">
         <v>90.29885756128863</v>
@@ -2093,7 +2093,7 @@
         <v>61</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J30">
         <v>8000</v>
@@ -2108,10 +2108,10 @@
         <v>1012286.637426617</v>
       </c>
       <c r="N30">
-        <v>1.550576923076923</v>
+        <v>1.593030259848797</v>
       </c>
       <c r="O30">
-        <v>1.658958333333333</v>
+        <v>1.708276634982499</v>
       </c>
       <c r="P30">
         <v>126.5358296783272</v>
@@ -2402,7 +2402,7 @@
         <v>61</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J36">
         <v>8000</v>
@@ -2417,10 +2417,10 @@
         <v>869784.1599779146</v>
       </c>
       <c r="N36">
-        <v>1.550576923076923</v>
+        <v>1.674945181765724</v>
       </c>
       <c r="O36">
-        <v>1.658958333333333</v>
+        <v>1.804078036500944</v>
       </c>
       <c r="P36">
         <v>108.7230199972393</v>
@@ -2455,7 +2455,7 @@
         <v>61</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J37">
         <v>8000</v>
@@ -2470,10 +2470,10 @@
         <v>691618.0897577453</v>
       </c>
       <c r="N37">
-        <v>1.550576923076923</v>
+        <v>1.605884483070795</v>
       </c>
       <c r="O37">
-        <v>1.658958333333333</v>
+        <v>1.723253983867794</v>
       </c>
       <c r="P37">
         <v>86.45226121971815</v>
@@ -2508,7 +2508,7 @@
         <v>62</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J38">
         <v>8000</v>
@@ -2555,7 +2555,7 @@
         <v>61</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J39">
         <v>8000</v>
@@ -2570,10 +2570,10 @@
         <v>747868.2115591286</v>
       </c>
       <c r="N39">
-        <v>1.550576923076923</v>
+        <v>1.674945181765724</v>
       </c>
       <c r="O39">
-        <v>1.658958333333333</v>
+        <v>1.804078036500944</v>
       </c>
       <c r="P39">
         <v>93.48352644489107</v>
@@ -2661,7 +2661,7 @@
         <v>61</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J41">
         <v>8000</v>
@@ -2676,10 +2676,10 @@
         <v>464472.7899161247</v>
       </c>
       <c r="N41">
-        <v>1.550576923076923</v>
+        <v>1.586442583591966</v>
       </c>
       <c r="O41">
-        <v>1.658958333333333</v>
+        <v>1.700608911205746</v>
       </c>
       <c r="P41">
         <v>58.05909873951558</v>
@@ -2714,7 +2714,7 @@
         <v>61</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J42">
         <v>8000</v>
@@ -2729,10 +2729,10 @@
         <v>430375.7798608996</v>
       </c>
       <c r="N42">
-        <v>1.550576923076923</v>
+        <v>1.459904774678112</v>
       </c>
       <c r="O42">
-        <v>1.658958333333333</v>
+        <v>1.554373915558126</v>
       </c>
       <c r="P42">
         <v>53.79697248261245</v>
